--- a/Code/Results/Cases/Case_0_128/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_128/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9801948447273384</v>
+        <v>1.034235103068927</v>
       </c>
       <c r="D2">
-        <v>0.9893582699578096</v>
+        <v>1.035062540151133</v>
       </c>
       <c r="E2">
-        <v>0.9887269756598598</v>
+        <v>1.033375847717271</v>
       </c>
       <c r="F2">
-        <v>0.9559668421008188</v>
+        <v>1.032883946252723</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039425483867376</v>
+        <v>1.033595632660343</v>
       </c>
       <c r="J2">
-        <v>1.002984503333409</v>
+        <v>1.039355459511754</v>
       </c>
       <c r="K2">
-        <v>1.000967879249509</v>
+        <v>1.037860221912651</v>
       </c>
       <c r="L2">
-        <v>1.000345628287063</v>
+        <v>1.036178376311466</v>
       </c>
       <c r="M2">
-        <v>0.968075736237392</v>
+        <v>1.035687891600804</v>
       </c>
       <c r="N2">
-        <v>1.004408856372073</v>
+        <v>1.040831463480028</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9892389795027092</v>
+        <v>1.03589053340658</v>
       </c>
       <c r="D3">
-        <v>0.9972207558631669</v>
+        <v>1.036541387296155</v>
       </c>
       <c r="E3">
-        <v>0.9963008037244449</v>
+        <v>1.034804955892894</v>
       </c>
       <c r="F3">
-        <v>0.9680259238018104</v>
+        <v>1.035179263580405</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042328011369799</v>
+        <v>1.033983417789655</v>
       </c>
       <c r="J3">
-        <v>1.010027362393442</v>
+        <v>1.040650366874485</v>
       </c>
       <c r="K3">
-        <v>1.007889321587444</v>
+        <v>1.039146605888306</v>
       </c>
       <c r="L3">
-        <v>1.006981236302253</v>
+        <v>1.037414796896939</v>
       </c>
       <c r="M3">
-        <v>0.9790849537533597</v>
+        <v>1.037788106753166</v>
       </c>
       <c r="N3">
-        <v>1.011461717099799</v>
+        <v>1.042128209759712</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9948602977776554</v>
+        <v>1.036958020782125</v>
       </c>
       <c r="D4">
-        <v>1.002112719376195</v>
+        <v>1.037495101656242</v>
       </c>
       <c r="E4">
-        <v>1.001014776659135</v>
+        <v>1.035726667250255</v>
       </c>
       <c r="F4">
-        <v>0.9755069219231481</v>
+        <v>1.036660170529521</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044111429969201</v>
+        <v>1.034230964878249</v>
       </c>
       <c r="J4">
-        <v>1.014396397741859</v>
+        <v>1.041484293603547</v>
       </c>
       <c r="K4">
-        <v>1.012185712441642</v>
+        <v>1.039975291265924</v>
       </c>
       <c r="L4">
-        <v>1.011100969631157</v>
+        <v>1.038211323375257</v>
       </c>
       <c r="M4">
-        <v>0.9859102306965022</v>
+        <v>1.039142466869444</v>
       </c>
       <c r="N4">
-        <v>1.015836956979546</v>
+        <v>1.042963320760383</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.997172300749909</v>
+        <v>1.037405926422043</v>
       </c>
       <c r="D5">
-        <v>1.004125860181296</v>
+        <v>1.037895291418474</v>
       </c>
       <c r="E5">
-        <v>1.002955031567154</v>
+        <v>1.036113445700803</v>
       </c>
       <c r="F5">
-        <v>0.9785811258863303</v>
+        <v>1.037281738706672</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044839908245831</v>
+        <v>1.034334230337394</v>
       </c>
       <c r="J5">
-        <v>1.016191291397746</v>
+        <v>1.041833940620772</v>
       </c>
       <c r="K5">
-        <v>1.013951386294457</v>
+        <v>1.040322800016208</v>
       </c>
       <c r="L5">
-        <v>1.012794213842622</v>
+        <v>1.038545352795901</v>
       </c>
       <c r="M5">
-        <v>0.9887138342225082</v>
+        <v>1.03971076002758</v>
       </c>
       <c r="N5">
-        <v>1.017634399590301</v>
+        <v>1.043313464316477</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.997557603086446</v>
+        <v>1.037481081441685</v>
       </c>
       <c r="D6">
-        <v>1.004461418973225</v>
+        <v>1.037962441360949</v>
       </c>
       <c r="E6">
-        <v>1.003278461973238</v>
+        <v>1.036178346312209</v>
       </c>
       <c r="F6">
-        <v>0.97909331407078</v>
+        <v>1.037386044616571</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044961013320122</v>
+        <v>1.034351522093553</v>
       </c>
       <c r="J6">
-        <v>1.016490293826722</v>
+        <v>1.041892593406003</v>
       </c>
       <c r="K6">
-        <v>1.014245557396515</v>
+        <v>1.040381097589799</v>
       </c>
       <c r="L6">
-        <v>1.013076327431714</v>
+        <v>1.038601389474797</v>
       </c>
       <c r="M6">
-        <v>0.9891808687987872</v>
+        <v>1.039806116379659</v>
       </c>
       <c r="N6">
-        <v>1.017933826637022</v>
+        <v>1.04337220039539</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9948913870401895</v>
+        <v>1.036964009099653</v>
       </c>
       <c r="D7">
-        <v>1.002139785579026</v>
+        <v>1.037500451946212</v>
       </c>
       <c r="E7">
-        <v>1.001040861529263</v>
+        <v>1.035731838170566</v>
       </c>
       <c r="F7">
-        <v>0.9755482700979103</v>
+        <v>1.036668479865012</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04412124578073</v>
+        <v>1.034232347866282</v>
       </c>
       <c r="J7">
-        <v>1.014420541692207</v>
+        <v>1.041488969262771</v>
       </c>
       <c r="K7">
-        <v>1.012209460888328</v>
+        <v>1.03997993809783</v>
       </c>
       <c r="L7">
-        <v>1.011123743233776</v>
+        <v>1.038215789938284</v>
       </c>
       <c r="M7">
-        <v>0.9859479439108326</v>
+        <v>1.039150064638201</v>
       </c>
       <c r="N7">
-        <v>1.015861135217073</v>
+        <v>1.042968003059579</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9833017589554198</v>
+        <v>1.034795336892755</v>
       </c>
       <c r="D8">
-        <v>0.9920581036664061</v>
+        <v>1.035562994242666</v>
       </c>
       <c r="E8">
-        <v>0.9913273309856112</v>
+        <v>1.033859454308298</v>
       </c>
       <c r="F8">
-        <v>0.9601129988905093</v>
+        <v>1.033660570484609</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040426917633739</v>
+        <v>1.033727388382188</v>
       </c>
       <c r="J8">
-        <v>1.005405684782322</v>
+        <v>1.039793908613308</v>
       </c>
       <c r="K8">
-        <v>1.003346738627286</v>
+        <v>1.038295733572601</v>
       </c>
       <c r="L8">
-        <v>1.002626074922093</v>
+        <v>1.036596966885629</v>
       </c>
       <c r="M8">
-        <v>0.9718618166771791</v>
+        <v>1.036398641438576</v>
       </c>
       <c r="N8">
-        <v>1.006833476176357</v>
+        <v>1.041270535229567</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C9">
-        <v>0.9608975576721521</v>
+        <v>1.030944874358058</v>
       </c>
       <c r="D9">
-        <v>0.9726170679803152</v>
+        <v>1.032123815057246</v>
       </c>
       <c r="E9">
-        <v>0.9726109981025259</v>
+        <v>1.030536364185711</v>
       </c>
       <c r="F9">
-        <v>0.9301128734733202</v>
+        <v>1.028325906292966</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033117902230005</v>
+        <v>1.032811510489926</v>
       </c>
       <c r="J9">
-        <v>0.9879109255035398</v>
+        <v>1.036776020743792</v>
       </c>
       <c r="K9">
-        <v>0.9861706078278768</v>
+        <v>1.035299089513167</v>
       </c>
       <c r="L9">
-        <v>0.9861646437407448</v>
+        <v>1.033716868665899</v>
       </c>
       <c r="M9">
-        <v>0.9444516349098891</v>
+        <v>1.031513722867144</v>
       </c>
       <c r="N9">
-        <v>0.9893138723327216</v>
+        <v>1.03824836161312</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.944266361689976</v>
+        <v>1.028357356181191</v>
       </c>
       <c r="D10">
-        <v>0.9582284296181351</v>
+        <v>1.029813239010403</v>
       </c>
       <c r="E10">
-        <v>0.9587713881090471</v>
+        <v>1.028304179802862</v>
       </c>
       <c r="F10">
-        <v>0.9076526002877044</v>
+        <v>1.024744569417686</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027582964625173</v>
+        <v>1.03218308201769</v>
       </c>
       <c r="J10">
-        <v>0.9748801021093941</v>
+        <v>1.034742412609898</v>
       </c>
       <c r="K10">
-        <v>0.9733951886901339</v>
+        <v>1.033281088767941</v>
       </c>
       <c r="L10">
-        <v>0.9739271940212632</v>
+        <v>1.031777501872837</v>
       </c>
       <c r="M10">
-        <v>0.9239166215754742</v>
+        <v>1.02823087028413</v>
       </c>
       <c r="N10">
-        <v>0.9762645436746998</v>
+        <v>1.036211865522418</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9365566895904743</v>
+        <v>1.027231822553901</v>
       </c>
       <c r="D11">
-        <v>0.9515712621639116</v>
+        <v>1.028808313673708</v>
       </c>
       <c r="E11">
-        <v>0.9523719762998563</v>
+        <v>1.027333445713399</v>
       </c>
       <c r="F11">
-        <v>0.8971709610073045</v>
+        <v>1.023187501958659</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024992678898012</v>
+        <v>1.031906662659317</v>
       </c>
       <c r="J11">
-        <v>0.9688295779085007</v>
+        <v>1.03385650198954</v>
       </c>
       <c r="K11">
-        <v>0.9674681535025119</v>
+        <v>1.032402284374354</v>
       </c>
       <c r="L11">
-        <v>0.9682516783429903</v>
+        <v>1.03093297780338</v>
       </c>
       <c r="M11">
-        <v>0.9143328362696392</v>
+        <v>1.026802762648853</v>
       </c>
       <c r="N11">
-        <v>0.9702054270354367</v>
+        <v>1.035324696807363</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9336049945530769</v>
+        <v>1.026812959247298</v>
       </c>
       <c r="D12">
-        <v>0.9490247441933224</v>
+        <v>1.028434356533678</v>
       </c>
       <c r="E12">
-        <v>0.9499246942688879</v>
+        <v>1.026972226711121</v>
       </c>
       <c r="F12">
-        <v>0.8931447417004821</v>
+        <v>1.022608152479909</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023997449518329</v>
+        <v>1.031803335103318</v>
       </c>
       <c r="J12">
-        <v>0.9665116672705262</v>
+        <v>1.033526615534444</v>
       </c>
       <c r="K12">
-        <v>0.9651983516915725</v>
+        <v>1.032075090261341</v>
       </c>
       <c r="L12">
-        <v>0.9660785327901917</v>
+        <v>1.030618552444305</v>
       </c>
       <c r="M12">
-        <v>0.9106517132668457</v>
+        <v>1.026271274410253</v>
       </c>
       <c r="N12">
-        <v>0.9678842246984881</v>
+        <v>1.034994341875662</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9342423408552514</v>
+        <v>1.026902842931667</v>
       </c>
       <c r="D13">
-        <v>0.9495744975280338</v>
+        <v>1.028514602805689</v>
       </c>
       <c r="E13">
-        <v>0.9504529939458103</v>
+        <v>1.027049738876499</v>
       </c>
       <c r="F13">
-        <v>0.8940147548959209</v>
+        <v>1.022732470064567</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024212500933091</v>
+        <v>1.031825528869878</v>
       </c>
       <c r="J13">
-        <v>0.9670122269901277</v>
+        <v>1.033597414669154</v>
       </c>
       <c r="K13">
-        <v>0.9656884848763123</v>
+        <v>1.032145309483776</v>
       </c>
       <c r="L13">
-        <v>0.9665477784493127</v>
+        <v>1.030686031106131</v>
       </c>
       <c r="M13">
-        <v>0.9114471404007073</v>
+        <v>1.026385327369852</v>
       </c>
       <c r="N13">
-        <v>0.9683854952703063</v>
+        <v>1.035065241553265</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9363145732351124</v>
+        <v>1.027197215418403</v>
       </c>
       <c r="D14">
-        <v>0.951362334374466</v>
+        <v>1.028777416297397</v>
       </c>
       <c r="E14">
-        <v>0.9521711768745197</v>
+        <v>1.027303600495619</v>
       </c>
       <c r="F14">
-        <v>0.8968409918129692</v>
+        <v>1.02313963305437</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024911114198505</v>
+        <v>1.03189813493068</v>
       </c>
       <c r="J14">
-        <v>0.9686394770937468</v>
+        <v>1.033829250294124</v>
       </c>
       <c r="K14">
-        <v>0.9672819816742949</v>
+        <v>1.032375254149458</v>
       </c>
       <c r="L14">
-        <v>0.9680734273205741</v>
+        <v>1.030907002318699</v>
       </c>
       <c r="M14">
-        <v>0.9140311431787944</v>
+        <v>1.02675885077313</v>
       </c>
       <c r="N14">
-        <v>0.9700150562557208</v>
+        <v>1.035297406411414</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9375792923267696</v>
+        <v>1.0273784827184</v>
       </c>
       <c r="D15">
-        <v>0.952453781170441</v>
+        <v>1.028939253315762</v>
       </c>
       <c r="E15">
-        <v>0.9532201871153283</v>
+        <v>1.027459927029221</v>
       </c>
       <c r="F15">
-        <v>0.8985640644703616</v>
+        <v>1.023390367991798</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025337034090323</v>
+        <v>1.031942783191252</v>
       </c>
       <c r="J15">
-        <v>0.9696324302294327</v>
+        <v>1.033971982735139</v>
       </c>
       <c r="K15">
-        <v>0.9682544453600853</v>
+        <v>1.032516828515256</v>
       </c>
       <c r="L15">
-        <v>0.969004530719464</v>
+        <v>1.031043052573075</v>
       </c>
       <c r="M15">
-        <v>0.9156065708437664</v>
+        <v>1.026988854010187</v>
       </c>
       <c r="N15">
-        <v>0.971009419498753</v>
+        <v>1.035440341548867</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9447663860057552</v>
+        <v>1.028431944491957</v>
       </c>
       <c r="D16">
-        <v>0.9586604786706036</v>
+        <v>1.0298798377612</v>
       </c>
       <c r="E16">
-        <v>0.9591867915300856</v>
+        <v>1.028368514672905</v>
       </c>
       <c r="F16">
-        <v>0.9083307611049775</v>
+        <v>1.024847770618075</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027750473336063</v>
+        <v>1.032201335815982</v>
       </c>
       <c r="J16">
-        <v>0.9752723217921361</v>
+        <v>1.034801093541586</v>
       </c>
       <c r="K16">
-        <v>0.9737795086563983</v>
+        <v>1.033339305457351</v>
       </c>
       <c r="L16">
-        <v>0.9742952480762658</v>
+        <v>1.031833448428298</v>
       </c>
       <c r="M16">
-        <v>0.9245367022567498</v>
+        <v>1.028325507058355</v>
       </c>
       <c r="N16">
-        <v>0.9766573203543799</v>
+        <v>1.03627062978776</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9491311697650232</v>
+        <v>1.029091367692917</v>
       </c>
       <c r="D17">
-        <v>0.9624333640918027</v>
+        <v>1.030468643068044</v>
       </c>
       <c r="E17">
-        <v>0.9628147423372736</v>
+        <v>1.028937315997785</v>
       </c>
       <c r="F17">
-        <v>0.9142425014994505</v>
+        <v>1.025760242835535</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029209972534708</v>
+        <v>1.032362361936194</v>
       </c>
       <c r="J17">
-        <v>0.9786949716834009</v>
+        <v>1.03531973009001</v>
       </c>
       <c r="K17">
-        <v>0.9771337738390719</v>
+        <v>1.033853874290388</v>
       </c>
       <c r="L17">
-        <v>0.9775077672188268</v>
+        <v>1.032327956105393</v>
       </c>
       <c r="M17">
-        <v>0.9299420990155346</v>
+        <v>1.029162161665706</v>
       </c>
       <c r="N17">
-        <v>0.9800848308010738</v>
+        <v>1.036790002859571</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.951628941668975</v>
+        <v>1.029475505376561</v>
       </c>
       <c r="D18">
-        <v>0.9645935959393077</v>
+        <v>1.030811656940353</v>
       </c>
       <c r="E18">
-        <v>0.9648923300951868</v>
+        <v>1.029268685672704</v>
       </c>
       <c r="F18">
-        <v>0.9176192741118063</v>
+        <v>1.026291864567852</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03004290335287</v>
+        <v>1.032455870737596</v>
       </c>
       <c r="J18">
-        <v>0.9806526858526543</v>
+        <v>1.035621727458383</v>
       </c>
       <c r="K18">
-        <v>0.979052820996106</v>
+        <v>1.034153532585814</v>
       </c>
       <c r="L18">
-        <v>0.9793458940857369</v>
+        <v>1.032615935333154</v>
       </c>
       <c r="M18">
-        <v>0.933029569961337</v>
+        <v>1.029649532500285</v>
       </c>
       <c r="N18">
-        <v>0.9820453251490004</v>
+        <v>1.037092429098846</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9524727648762042</v>
+        <v>1.029606403445903</v>
       </c>
       <c r="D19">
-        <v>0.9653235801960693</v>
+        <v>1.030928544023057</v>
       </c>
       <c r="E19">
-        <v>0.9655944431142967</v>
+        <v>1.029381606393968</v>
       </c>
       <c r="F19">
-        <v>0.9187590594366484</v>
+        <v>1.026473031786963</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030323902465418</v>
+        <v>1.032487684615907</v>
       </c>
       <c r="J19">
-        <v>0.9813139041673945</v>
+        <v>1.035724613983515</v>
       </c>
       <c r="K19">
-        <v>0.9797010538862027</v>
+        <v>1.034255627225194</v>
       </c>
       <c r="L19">
-        <v>0.9799668216458015</v>
+        <v>1.032714051465899</v>
       </c>
       <c r="M19">
-        <v>0.934071684223224</v>
+        <v>1.029815606513701</v>
       </c>
       <c r="N19">
-        <v>0.9827074824695902</v>
+        <v>1.037195461734645</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9486679240339529</v>
+        <v>1.029020668936209</v>
       </c>
       <c r="D20">
-        <v>0.9620328136229516</v>
+        <v>1.030405514051227</v>
       </c>
       <c r="E20">
-        <v>0.9624295429440937</v>
+        <v>1.028876330752371</v>
       </c>
       <c r="F20">
-        <v>0.9136157420468888</v>
+        <v>1.025662406329667</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029055308234737</v>
+        <v>1.032345128328657</v>
       </c>
       <c r="J20">
-        <v>0.978331812153055</v>
+        <v>1.035264138640598</v>
       </c>
       <c r="K20">
-        <v>0.9767778231363562</v>
+        <v>1.033798715794038</v>
       </c>
       <c r="L20">
-        <v>0.9771668398542778</v>
+        <v>1.032274947672726</v>
       </c>
       <c r="M20">
-        <v>0.9293690282342365</v>
+        <v>1.029072462524212</v>
       </c>
       <c r="N20">
-        <v>0.9797211555425397</v>
+        <v>1.036734332463924</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9357068880695969</v>
+        <v>1.027110552032994</v>
       </c>
       <c r="D21">
-        <v>0.9508379854208155</v>
+        <v>1.028700043273719</v>
       </c>
       <c r="E21">
-        <v>0.9516672383165931</v>
+        <v>1.02722886251975</v>
       </c>
       <c r="F21">
-        <v>0.8960125824958999</v>
+        <v>1.023019761185146</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024706339949609</v>
+        <v>1.031876772334619</v>
       </c>
       <c r="J21">
-        <v>0.9681623223966893</v>
+        <v>1.033761003247715</v>
       </c>
       <c r="K21">
-        <v>0.9668147018559443</v>
+        <v>1.032307562482801</v>
       </c>
       <c r="L21">
-        <v>0.9676260337748641</v>
+        <v>1.030841952123731</v>
       </c>
       <c r="M21">
-        <v>0.9132737274405386</v>
+        <v>1.02664888601046</v>
       </c>
       <c r="N21">
-        <v>0.9695372239442633</v>
+        <v>1.035229062446371</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9270408123730534</v>
+        <v>1.025905004586143</v>
       </c>
       <c r="D22">
-        <v>0.943366091062915</v>
+        <v>1.027623784911099</v>
       </c>
       <c r="E22">
-        <v>0.9444878397091</v>
+        <v>1.026189292869566</v>
       </c>
       <c r="F22">
-        <v>0.8841625575126403</v>
+        <v>1.021352506937683</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021777846969651</v>
+        <v>1.031578516546649</v>
       </c>
       <c r="J22">
-        <v>0.9613543384821924</v>
+        <v>1.032811170720543</v>
       </c>
       <c r="K22">
-        <v>0.9601496381475562</v>
+        <v>1.031365569135111</v>
       </c>
       <c r="L22">
-        <v>0.9612454917260748</v>
+        <v>1.029936730737536</v>
       </c>
       <c r="M22">
-        <v>0.90244022388606</v>
+        <v>1.025119137834561</v>
       </c>
       <c r="N22">
-        <v>0.9627195719117209</v>
+        <v>1.034277881048063</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9316885071375399</v>
+        <v>1.026544529292832</v>
       </c>
       <c r="D23">
-        <v>0.9473719965168927</v>
+        <v>1.028194711207168</v>
       </c>
       <c r="E23">
-        <v>0.9483365441815872</v>
+        <v>1.026740748622152</v>
       </c>
       <c r="F23">
-        <v>0.890526427350028</v>
+        <v>1.022236903830353</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023350290797975</v>
+        <v>1.031736988156324</v>
       </c>
       <c r="J23">
-        <v>0.965006288314579</v>
+        <v>1.033315150989602</v>
       </c>
       <c r="K23">
-        <v>0.9637244528062734</v>
+        <v>1.031865364582483</v>
       </c>
       <c r="L23">
-        <v>0.9646674987333648</v>
+        <v>1.030417012899906</v>
       </c>
       <c r="M23">
-        <v>0.9082579258506659</v>
+        <v>1.025930661126049</v>
       </c>
       <c r="N23">
-        <v>0.966376707931754</v>
+        <v>1.034782577026912</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9488773927326832</v>
+        <v>1.029052616183167</v>
       </c>
       <c r="D24">
-        <v>0.9622139293689354</v>
+        <v>1.030434040653472</v>
       </c>
       <c r="E24">
-        <v>0.9626037163828555</v>
+        <v>1.028903888603126</v>
       </c>
       <c r="F24">
-        <v>0.9138991670464809</v>
+        <v>1.025706616312478</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029125250851761</v>
+        <v>1.032352916736344</v>
       </c>
       <c r="J24">
-        <v>0.9784960271112993</v>
+        <v>1.035289259613263</v>
       </c>
       <c r="K24">
-        <v>0.976938776985656</v>
+        <v>1.033823641030182</v>
       </c>
       <c r="L24">
-        <v>0.9773209999038802</v>
+        <v>1.032298901318864</v>
       </c>
       <c r="M24">
-        <v>0.9296281751104986</v>
+        <v>1.029112995668245</v>
       </c>
       <c r="N24">
-        <v>0.9798856037048603</v>
+        <v>1.036759489111252</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9669578098728079</v>
+        <v>1.031943853832286</v>
       </c>
       <c r="D25">
-        <v>0.9778693783841474</v>
+        <v>1.03301599466016</v>
       </c>
       <c r="E25">
-        <v>0.9776655961513294</v>
+        <v>1.031398359162988</v>
       </c>
       <c r="F25">
-        <v>0.9382532033857366</v>
+        <v>1.029709298861934</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035113669592651</v>
+        <v>1.033051408660093</v>
       </c>
       <c r="J25">
-        <v>0.9926507425389708</v>
+        <v>1.037559975233167</v>
       </c>
       <c r="K25">
-        <v>0.9908212419040077</v>
+        <v>1.036077299062332</v>
       </c>
       <c r="L25">
-        <v>0.9906208108437005</v>
+        <v>1.034464786110429</v>
       </c>
       <c r="M25">
-        <v>0.9518921810472917</v>
+        <v>1.032781093324022</v>
       </c>
       <c r="N25">
-        <v>0.9940604204520077</v>
+        <v>1.03903342940779</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_128/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_128/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.034235103068927</v>
+        <v>0.9801948447273371</v>
       </c>
       <c r="D2">
-        <v>1.035062540151133</v>
+        <v>0.9893582699578085</v>
       </c>
       <c r="E2">
-        <v>1.033375847717271</v>
+        <v>0.9887269756598583</v>
       </c>
       <c r="F2">
-        <v>1.032883946252723</v>
+        <v>0.9559668421008174</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033595632660343</v>
+        <v>1.039425483867375</v>
       </c>
       <c r="J2">
-        <v>1.039355459511754</v>
+        <v>1.002984503333408</v>
       </c>
       <c r="K2">
-        <v>1.037860221912651</v>
+        <v>1.000967879249508</v>
       </c>
       <c r="L2">
-        <v>1.036178376311466</v>
+        <v>1.000345628287062</v>
       </c>
       <c r="M2">
-        <v>1.035687891600804</v>
+        <v>0.9680757362373904</v>
       </c>
       <c r="N2">
-        <v>1.040831463480028</v>
+        <v>1.004408856372072</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03589053340658</v>
+        <v>0.9892389795027059</v>
       </c>
       <c r="D3">
-        <v>1.036541387296155</v>
+        <v>0.9972207558631635</v>
       </c>
       <c r="E3">
-        <v>1.034804955892894</v>
+        <v>0.9963008037244419</v>
       </c>
       <c r="F3">
-        <v>1.035179263580405</v>
+        <v>0.968025923801806</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033983417789655</v>
+        <v>1.042328011369797</v>
       </c>
       <c r="J3">
-        <v>1.040650366874485</v>
+        <v>1.010027362393439</v>
       </c>
       <c r="K3">
-        <v>1.039146605888306</v>
+        <v>1.00788932158744</v>
       </c>
       <c r="L3">
-        <v>1.037414796896939</v>
+        <v>1.006981236302249</v>
       </c>
       <c r="M3">
-        <v>1.037788106753166</v>
+        <v>0.9790849537533555</v>
       </c>
       <c r="N3">
-        <v>1.042128209759712</v>
+        <v>1.011461717099795</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036958020782125</v>
+        <v>0.9948602977776574</v>
       </c>
       <c r="D4">
-        <v>1.037495101656242</v>
+        <v>1.002112719376198</v>
       </c>
       <c r="E4">
-        <v>1.035726667250255</v>
+        <v>1.001014776659137</v>
       </c>
       <c r="F4">
-        <v>1.036660170529521</v>
+        <v>0.9755069219231502</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034230964878249</v>
+        <v>1.044111429969202</v>
       </c>
       <c r="J4">
-        <v>1.041484293603547</v>
+        <v>1.014396397741862</v>
       </c>
       <c r="K4">
-        <v>1.039975291265924</v>
+        <v>1.012185712441645</v>
       </c>
       <c r="L4">
-        <v>1.038211323375257</v>
+        <v>1.011100969631158</v>
       </c>
       <c r="M4">
-        <v>1.039142466869444</v>
+        <v>0.9859102306965044</v>
       </c>
       <c r="N4">
-        <v>1.042963320760383</v>
+        <v>1.015836956979548</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037405926422043</v>
+        <v>0.9971723007499085</v>
       </c>
       <c r="D5">
-        <v>1.037895291418474</v>
+        <v>1.004125860181295</v>
       </c>
       <c r="E5">
-        <v>1.036113445700803</v>
+        <v>1.002955031567154</v>
       </c>
       <c r="F5">
-        <v>1.037281738706672</v>
+        <v>0.9785811258863301</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034334230337394</v>
+        <v>1.04483990824583</v>
       </c>
       <c r="J5">
-        <v>1.041833940620772</v>
+        <v>1.016191291397745</v>
       </c>
       <c r="K5">
-        <v>1.040322800016208</v>
+        <v>1.013951386294457</v>
       </c>
       <c r="L5">
-        <v>1.038545352795901</v>
+        <v>1.012794213842621</v>
       </c>
       <c r="M5">
-        <v>1.03971076002758</v>
+        <v>0.9887138342225081</v>
       </c>
       <c r="N5">
-        <v>1.043313464316477</v>
+        <v>1.0176343995903</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037481081441685</v>
+        <v>0.9975576030864467</v>
       </c>
       <c r="D6">
-        <v>1.037962441360949</v>
+        <v>1.004461418973226</v>
       </c>
       <c r="E6">
-        <v>1.036178346312209</v>
+        <v>1.003278461973238</v>
       </c>
       <c r="F6">
-        <v>1.037386044616571</v>
+        <v>0.9790933140707806</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034351522093553</v>
+        <v>1.044961013320123</v>
       </c>
       <c r="J6">
-        <v>1.041892593406003</v>
+        <v>1.016490293826722</v>
       </c>
       <c r="K6">
-        <v>1.040381097589799</v>
+        <v>1.014245557396515</v>
       </c>
       <c r="L6">
-        <v>1.038601389474797</v>
+        <v>1.013076327431714</v>
       </c>
       <c r="M6">
-        <v>1.039806116379659</v>
+        <v>0.9891808687987879</v>
       </c>
       <c r="N6">
-        <v>1.04337220039539</v>
+        <v>1.017933826637022</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036964009099653</v>
+        <v>0.9948913870401903</v>
       </c>
       <c r="D7">
-        <v>1.037500451946212</v>
+        <v>1.002139785579027</v>
       </c>
       <c r="E7">
-        <v>1.035731838170566</v>
+        <v>1.001040861529264</v>
       </c>
       <c r="F7">
-        <v>1.036668479865012</v>
+        <v>0.975548270097911</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034232347866282</v>
+        <v>1.04412124578073</v>
       </c>
       <c r="J7">
-        <v>1.041488969262771</v>
+        <v>1.014420541692208</v>
       </c>
       <c r="K7">
-        <v>1.03997993809783</v>
+        <v>1.012209460888329</v>
       </c>
       <c r="L7">
-        <v>1.038215789938284</v>
+        <v>1.011123743233776</v>
       </c>
       <c r="M7">
-        <v>1.039150064638201</v>
+        <v>0.9859479439108334</v>
       </c>
       <c r="N7">
-        <v>1.042968003059579</v>
+        <v>1.015861135217073</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.034795336892755</v>
+        <v>0.9833017589554194</v>
       </c>
       <c r="D8">
-        <v>1.035562994242666</v>
+        <v>0.9920581036664053</v>
       </c>
       <c r="E8">
-        <v>1.033859454308298</v>
+        <v>0.9913273309856107</v>
       </c>
       <c r="F8">
-        <v>1.033660570484609</v>
+        <v>0.9601129988905084</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033727388382188</v>
+        <v>1.040426917633738</v>
       </c>
       <c r="J8">
-        <v>1.039793908613308</v>
+        <v>1.005405684782321</v>
       </c>
       <c r="K8">
-        <v>1.038295733572601</v>
+        <v>1.003346738627285</v>
       </c>
       <c r="L8">
-        <v>1.036596966885629</v>
+        <v>1.002626074922092</v>
       </c>
       <c r="M8">
-        <v>1.036398641438576</v>
+        <v>0.9718618166771782</v>
       </c>
       <c r="N8">
-        <v>1.041270535229567</v>
+        <v>1.006833476176356</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.030944874358058</v>
+        <v>0.9608975576721502</v>
       </c>
       <c r="D9">
-        <v>1.032123815057246</v>
+        <v>0.9726170679803132</v>
       </c>
       <c r="E9">
-        <v>1.030536364185711</v>
+        <v>0.9726109981025238</v>
       </c>
       <c r="F9">
-        <v>1.028325906292966</v>
+        <v>0.9301128734733181</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032811510489926</v>
+        <v>1.033117902230004</v>
       </c>
       <c r="J9">
-        <v>1.036776020743792</v>
+        <v>0.987910925503538</v>
       </c>
       <c r="K9">
-        <v>1.035299089513167</v>
+        <v>0.9861706078278749</v>
       </c>
       <c r="L9">
-        <v>1.033716868665899</v>
+        <v>0.9861646437407426</v>
       </c>
       <c r="M9">
-        <v>1.031513722867144</v>
+        <v>0.9444516349098871</v>
       </c>
       <c r="N9">
-        <v>1.03824836161312</v>
+        <v>0.9893138723327202</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028357356181191</v>
+        <v>0.9442663616899757</v>
       </c>
       <c r="D10">
-        <v>1.029813239010403</v>
+        <v>0.958228429618135</v>
       </c>
       <c r="E10">
-        <v>1.028304179802862</v>
+        <v>0.9587713881090466</v>
       </c>
       <c r="F10">
-        <v>1.024744569417686</v>
+        <v>0.907652600287704</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03218308201769</v>
+        <v>1.027582964625173</v>
       </c>
       <c r="J10">
-        <v>1.034742412609898</v>
+        <v>0.9748801021093938</v>
       </c>
       <c r="K10">
-        <v>1.033281088767941</v>
+        <v>0.9733951886901336</v>
       </c>
       <c r="L10">
-        <v>1.031777501872837</v>
+        <v>0.9739271940212625</v>
       </c>
       <c r="M10">
-        <v>1.02823087028413</v>
+        <v>0.9239166215754737</v>
       </c>
       <c r="N10">
-        <v>1.036211865522418</v>
+        <v>0.9762645436746997</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.027231822553901</v>
+        <v>0.9365566895904786</v>
       </c>
       <c r="D11">
-        <v>1.028808313673708</v>
+        <v>0.9515712621639156</v>
       </c>
       <c r="E11">
-        <v>1.027333445713399</v>
+        <v>0.9523719762998606</v>
       </c>
       <c r="F11">
-        <v>1.023187501958659</v>
+        <v>0.8971709610073094</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031906662659317</v>
+        <v>1.024992678898014</v>
       </c>
       <c r="J11">
-        <v>1.03385650198954</v>
+        <v>0.9688295779085048</v>
       </c>
       <c r="K11">
-        <v>1.032402284374354</v>
+        <v>0.967468153502516</v>
       </c>
       <c r="L11">
-        <v>1.03093297780338</v>
+        <v>0.9682516783429944</v>
       </c>
       <c r="M11">
-        <v>1.026802762648853</v>
+        <v>0.9143328362696438</v>
       </c>
       <c r="N11">
-        <v>1.035324696807363</v>
+        <v>0.9702054270354404</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.026812959247298</v>
+        <v>0.9336049945530773</v>
       </c>
       <c r="D12">
-        <v>1.028434356533678</v>
+        <v>0.9490247441933227</v>
       </c>
       <c r="E12">
-        <v>1.026972226711121</v>
+        <v>0.9499246942688881</v>
       </c>
       <c r="F12">
-        <v>1.022608152479909</v>
+        <v>0.8931447417004827</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031803335103318</v>
+        <v>1.023997449518329</v>
       </c>
       <c r="J12">
-        <v>1.033526615534444</v>
+        <v>0.9665116672705265</v>
       </c>
       <c r="K12">
-        <v>1.032075090261341</v>
+        <v>0.965198351691573</v>
       </c>
       <c r="L12">
-        <v>1.030618552444305</v>
+        <v>0.966078532790192</v>
       </c>
       <c r="M12">
-        <v>1.026271274410253</v>
+        <v>0.9106517132668464</v>
       </c>
       <c r="N12">
-        <v>1.034994341875662</v>
+        <v>0.9678842246984886</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026902842931667</v>
+        <v>0.9342423408552525</v>
       </c>
       <c r="D13">
-        <v>1.028514602805689</v>
+        <v>0.949574497528035</v>
       </c>
       <c r="E13">
-        <v>1.027049738876499</v>
+        <v>0.9504529939458115</v>
       </c>
       <c r="F13">
-        <v>1.022732470064567</v>
+        <v>0.8940147548959225</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031825528869878</v>
+        <v>1.024212500933092</v>
       </c>
       <c r="J13">
-        <v>1.033597414669154</v>
+        <v>0.967012226990129</v>
       </c>
       <c r="K13">
-        <v>1.032145309483776</v>
+        <v>0.9656884848763135</v>
       </c>
       <c r="L13">
-        <v>1.030686031106131</v>
+        <v>0.9665477784493137</v>
       </c>
       <c r="M13">
-        <v>1.026385327369852</v>
+        <v>0.911447140400709</v>
       </c>
       <c r="N13">
-        <v>1.035065241553265</v>
+        <v>0.9683854952703079</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C14">
-        <v>1.027197215418403</v>
+        <v>0.9363145732351134</v>
       </c>
       <c r="D14">
-        <v>1.028777416297397</v>
+        <v>0.951362334374467</v>
       </c>
       <c r="E14">
-        <v>1.027303600495619</v>
+        <v>0.952171176874521</v>
       </c>
       <c r="F14">
-        <v>1.02313963305437</v>
+        <v>0.8968409918129706</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03189813493068</v>
+        <v>1.024911114198505</v>
       </c>
       <c r="J14">
-        <v>1.033829250294124</v>
+        <v>0.9686394770937478</v>
       </c>
       <c r="K14">
-        <v>1.032375254149458</v>
+        <v>0.9672819816742958</v>
       </c>
       <c r="L14">
-        <v>1.030907002318699</v>
+        <v>0.9680734273205751</v>
       </c>
       <c r="M14">
-        <v>1.02675885077313</v>
+        <v>0.9140311431787961</v>
       </c>
       <c r="N14">
-        <v>1.035297406411414</v>
+        <v>0.9700150562557215</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.0273784827184</v>
+        <v>0.9375792923267667</v>
       </c>
       <c r="D15">
-        <v>1.028939253315762</v>
+        <v>0.9524537811704383</v>
       </c>
       <c r="E15">
-        <v>1.027459927029221</v>
+        <v>0.9532201871153257</v>
       </c>
       <c r="F15">
-        <v>1.023390367991798</v>
+        <v>0.8985640644703584</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031942783191252</v>
+        <v>1.025337034090322</v>
       </c>
       <c r="J15">
-        <v>1.033971982735139</v>
+        <v>0.96963243022943</v>
       </c>
       <c r="K15">
-        <v>1.032516828515256</v>
+        <v>0.9682544453600824</v>
       </c>
       <c r="L15">
-        <v>1.031043052573075</v>
+        <v>0.9690045307194616</v>
       </c>
       <c r="M15">
-        <v>1.026988854010187</v>
+        <v>0.9156065708437633</v>
       </c>
       <c r="N15">
-        <v>1.035440341548867</v>
+        <v>0.97100941949875</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028431944491957</v>
+        <v>0.944766386005755</v>
       </c>
       <c r="D16">
-        <v>1.0298798377612</v>
+        <v>0.9586604786706034</v>
       </c>
       <c r="E16">
-        <v>1.028368514672905</v>
+        <v>0.9591867915300855</v>
       </c>
       <c r="F16">
-        <v>1.024847770618075</v>
+        <v>0.9083307611049775</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032201335815982</v>
+        <v>1.027750473336063</v>
       </c>
       <c r="J16">
-        <v>1.034801093541586</v>
+        <v>0.9752723217921357</v>
       </c>
       <c r="K16">
-        <v>1.033339305457351</v>
+        <v>0.9737795086563983</v>
       </c>
       <c r="L16">
-        <v>1.031833448428298</v>
+        <v>0.9742952480762656</v>
       </c>
       <c r="M16">
-        <v>1.028325507058355</v>
+        <v>0.9245367022567499</v>
       </c>
       <c r="N16">
-        <v>1.03627062978776</v>
+        <v>0.9766573203543796</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.029091367692917</v>
+        <v>0.9491311697650243</v>
       </c>
       <c r="D17">
-        <v>1.030468643068044</v>
+        <v>0.962433364091804</v>
       </c>
       <c r="E17">
-        <v>1.028937315997785</v>
+        <v>0.9628147423372745</v>
       </c>
       <c r="F17">
-        <v>1.025760242835535</v>
+        <v>0.9142425014994516</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032362361936194</v>
+        <v>1.029209972534708</v>
       </c>
       <c r="J17">
-        <v>1.03531973009001</v>
+        <v>0.9786949716834019</v>
       </c>
       <c r="K17">
-        <v>1.033853874290388</v>
+        <v>0.9771337738390731</v>
       </c>
       <c r="L17">
-        <v>1.032327956105393</v>
+        <v>0.9775077672188276</v>
       </c>
       <c r="M17">
-        <v>1.029162161665706</v>
+        <v>0.9299420990155356</v>
       </c>
       <c r="N17">
-        <v>1.036790002859571</v>
+        <v>0.980084830801075</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.029475505376561</v>
+        <v>0.9516289416689738</v>
       </c>
       <c r="D18">
-        <v>1.030811656940353</v>
+        <v>0.9645935959393067</v>
       </c>
       <c r="E18">
-        <v>1.029268685672704</v>
+        <v>0.9648923300951855</v>
       </c>
       <c r="F18">
-        <v>1.026291864567852</v>
+        <v>0.9176192741118053</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032455870737596</v>
+        <v>1.030042903352869</v>
       </c>
       <c r="J18">
-        <v>1.035621727458383</v>
+        <v>0.9806526858526531</v>
       </c>
       <c r="K18">
-        <v>1.034153532585814</v>
+        <v>0.979052820996105</v>
       </c>
       <c r="L18">
-        <v>1.032615935333154</v>
+        <v>0.9793458940857357</v>
       </c>
       <c r="M18">
-        <v>1.029649532500285</v>
+        <v>0.9330295699613361</v>
       </c>
       <c r="N18">
-        <v>1.037092429098846</v>
+        <v>0.9820453251489991</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.029606403445903</v>
+        <v>0.9524727648762035</v>
       </c>
       <c r="D19">
-        <v>1.030928544023057</v>
+        <v>0.9653235801960682</v>
       </c>
       <c r="E19">
-        <v>1.029381606393968</v>
+        <v>0.965594443114296</v>
       </c>
       <c r="F19">
-        <v>1.026473031786963</v>
+        <v>0.9187590594366475</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032487684615907</v>
+        <v>1.030323902465418</v>
       </c>
       <c r="J19">
-        <v>1.035724613983515</v>
+        <v>0.9813139041673938</v>
       </c>
       <c r="K19">
-        <v>1.034255627225194</v>
+        <v>0.9797010538862017</v>
       </c>
       <c r="L19">
-        <v>1.032714051465899</v>
+        <v>0.9799668216458011</v>
       </c>
       <c r="M19">
-        <v>1.029815606513701</v>
+        <v>0.9340716842232233</v>
       </c>
       <c r="N19">
-        <v>1.037195461734645</v>
+        <v>0.9827074824695896</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.029020668936209</v>
+        <v>0.9486679240339519</v>
       </c>
       <c r="D20">
-        <v>1.030405514051227</v>
+        <v>0.9620328136229509</v>
       </c>
       <c r="E20">
-        <v>1.028876330752371</v>
+        <v>0.9624295429440927</v>
       </c>
       <c r="F20">
-        <v>1.025662406329667</v>
+        <v>0.9136157420468879</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032345128328657</v>
+        <v>1.029055308234737</v>
       </c>
       <c r="J20">
-        <v>1.035264138640598</v>
+        <v>0.978331812153054</v>
       </c>
       <c r="K20">
-        <v>1.033798715794038</v>
+        <v>0.9767778231363552</v>
       </c>
       <c r="L20">
-        <v>1.032274947672726</v>
+        <v>0.9771668398542765</v>
       </c>
       <c r="M20">
-        <v>1.029072462524212</v>
+        <v>0.9293690282342356</v>
       </c>
       <c r="N20">
-        <v>1.036734332463924</v>
+        <v>0.9797211555425387</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027110552032994</v>
+        <v>0.9357068880695943</v>
       </c>
       <c r="D21">
-        <v>1.028700043273719</v>
+        <v>0.9508379854208131</v>
       </c>
       <c r="E21">
-        <v>1.02722886251975</v>
+        <v>0.9516672383165903</v>
       </c>
       <c r="F21">
-        <v>1.023019761185146</v>
+        <v>0.8960125824958969</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031876772334619</v>
+        <v>1.024706339949608</v>
       </c>
       <c r="J21">
-        <v>1.033761003247715</v>
+        <v>0.9681623223966868</v>
       </c>
       <c r="K21">
-        <v>1.032307562482801</v>
+        <v>0.9668147018559416</v>
       </c>
       <c r="L21">
-        <v>1.030841952123731</v>
+        <v>0.9676260337748614</v>
       </c>
       <c r="M21">
-        <v>1.02664888601046</v>
+        <v>0.9132737274405358</v>
       </c>
       <c r="N21">
-        <v>1.035229062446371</v>
+        <v>0.9695372239442605</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025905004586143</v>
+        <v>0.9270408123730524</v>
       </c>
       <c r="D22">
-        <v>1.027623784911099</v>
+        <v>0.9433660910629144</v>
       </c>
       <c r="E22">
-        <v>1.026189292869566</v>
+        <v>0.9444878397090992</v>
       </c>
       <c r="F22">
-        <v>1.021352506937683</v>
+        <v>0.8841625575126386</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031578516546649</v>
+        <v>1.02177784696965</v>
       </c>
       <c r="J22">
-        <v>1.032811170720543</v>
+        <v>0.9613543384821914</v>
       </c>
       <c r="K22">
-        <v>1.031365569135111</v>
+        <v>0.9601496381475556</v>
       </c>
       <c r="L22">
-        <v>1.029936730737536</v>
+        <v>0.9612454917260741</v>
       </c>
       <c r="M22">
-        <v>1.025119137834561</v>
+        <v>0.9024402238860584</v>
       </c>
       <c r="N22">
-        <v>1.034277881048063</v>
+        <v>0.9627195719117201</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.026544529292832</v>
+        <v>0.9316885071375378</v>
       </c>
       <c r="D23">
-        <v>1.028194711207168</v>
+        <v>0.9473719965168906</v>
       </c>
       <c r="E23">
-        <v>1.026740748622152</v>
+        <v>0.9483365441815852</v>
       </c>
       <c r="F23">
-        <v>1.022236903830353</v>
+        <v>0.8905264273500257</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031736988156324</v>
+        <v>1.023350290797974</v>
       </c>
       <c r="J23">
-        <v>1.033315150989602</v>
+        <v>0.9650062883145771</v>
       </c>
       <c r="K23">
-        <v>1.031865364582483</v>
+        <v>0.9637244528062714</v>
       </c>
       <c r="L23">
-        <v>1.030417012899906</v>
+        <v>0.9646674987333627</v>
       </c>
       <c r="M23">
-        <v>1.025930661126049</v>
+        <v>0.9082579258506639</v>
       </c>
       <c r="N23">
-        <v>1.034782577026912</v>
+        <v>0.9663767079317522</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.029052616183167</v>
+        <v>0.9488773927326839</v>
       </c>
       <c r="D24">
-        <v>1.030434040653472</v>
+        <v>0.9622139293689359</v>
       </c>
       <c r="E24">
-        <v>1.028903888603126</v>
+        <v>0.9626037163828561</v>
       </c>
       <c r="F24">
-        <v>1.025706616312478</v>
+        <v>0.9138991670464816</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032352916736344</v>
+        <v>1.029125250851761</v>
       </c>
       <c r="J24">
-        <v>1.035289259613263</v>
+        <v>0.9784960271113</v>
       </c>
       <c r="K24">
-        <v>1.033823641030182</v>
+        <v>0.9769387769856569</v>
       </c>
       <c r="L24">
-        <v>1.032298901318864</v>
+        <v>0.9773209999038808</v>
       </c>
       <c r="M24">
-        <v>1.029112995668245</v>
+        <v>0.9296281751104993</v>
       </c>
       <c r="N24">
-        <v>1.036759489111252</v>
+        <v>0.9798856037048612</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.031943853832286</v>
+        <v>0.9669578098728048</v>
       </c>
       <c r="D25">
-        <v>1.03301599466016</v>
+        <v>0.9778693783841447</v>
       </c>
       <c r="E25">
-        <v>1.031398359162988</v>
+        <v>0.977665596151326</v>
       </c>
       <c r="F25">
-        <v>1.029709298861934</v>
+        <v>0.9382532033857333</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033051408660093</v>
+        <v>1.03511366959265</v>
       </c>
       <c r="J25">
-        <v>1.037559975233167</v>
+        <v>0.9926507425389677</v>
       </c>
       <c r="K25">
-        <v>1.036077299062332</v>
+        <v>0.9908212419040048</v>
       </c>
       <c r="L25">
-        <v>1.034464786110429</v>
+        <v>0.9906208108436974</v>
       </c>
       <c r="M25">
-        <v>1.032781093324022</v>
+        <v>0.9518921810472885</v>
       </c>
       <c r="N25">
-        <v>1.03903342940779</v>
+        <v>0.9940604204520046</v>
       </c>
     </row>
   </sheetData>
